--- a/prueba/lista.xlsx
+++ b/prueba/lista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Python\prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\newpython\Python\prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18149748-CC49-41F0-8789-40947252B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454AA9B7-EA48-465D-A296-8AAF2C52F889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0700C37C-69D4-4295-80A8-0020317EE258}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
-  <si>
-    <t>respuesta2</t>
-  </si>
-  <si>
-    <t>respuesta3</t>
-  </si>
-  <si>
-    <t>respuesta4</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>respuesta1</t>
   </si>
@@ -463,320 +448,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6158AAD7-FE32-46FF-874E-87575840D3D8}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
